--- a/data/trans_orig/IP18B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD657242-853C-49FF-9665-6CFD7DAC9F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA63CF26-8CAE-49D8-97BD-1D5280B3B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC9C7F45-EB4D-4AC6-A04F-DF315D628593}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73798635-A749-44FF-B471-DEAF118C20F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="441">
   <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2007 (Tasa respuesta: 87,21%)</t>
   </si>
@@ -110,79 +110,79 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>7,42%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>71,97%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -191,1171 +191,1177 @@
     <t>5,87%</t>
   </si>
   <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2016 (Tasa respuesta: 91,35%)</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F352E8-9DC0-4D7C-BB28-83092C20F919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471EE7B8-EFE7-4F9A-82A4-617D1DDF74A1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2764,7 +2770,7 @@
         <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>668</v>
@@ -2773,13 +2779,13 @@
         <v>447062</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>1374</v>
@@ -2788,13 +2794,13 @@
         <v>916405</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2815,13 @@
         <v>122407</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -2824,13 +2830,13 @@
         <v>115759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -2839,13 +2845,13 @@
         <v>238166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2907,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3299670-7D5B-4D88-9369-09A499840B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB25D4-B699-4C25-8A94-31EA2C8D5E6F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2938,7 +2944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3243,13 +3249,13 @@
         <v>3958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3258,13 +3264,13 @@
         <v>3300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3273,13 +3279,13 @@
         <v>7258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3381,13 @@
         <v>36176</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3455,13 @@
         <v>32385</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -3464,13 +3470,13 @@
         <v>18208</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -3479,13 +3485,13 @@
         <v>50592</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3506,13 @@
         <v>369259</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>487</v>
@@ -3515,13 +3521,13 @@
         <v>334830</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>1012</v>
@@ -3530,13 +3536,13 @@
         <v>704088</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3557,13 @@
         <v>72068</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -3566,13 +3572,13 @@
         <v>72926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>208</v>
@@ -3581,13 +3587,13 @@
         <v>144994</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,7 +3661,7 @@
         <v>14457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>185</v>
@@ -3864,10 +3870,10 @@
         <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -3876,13 +3882,13 @@
         <v>34578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -3891,13 +3897,13 @@
         <v>85378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3918,13 @@
         <v>555210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H21" s="7">
         <v>764</v>
@@ -3927,13 +3933,13 @@
         <v>527372</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="7">
         <v>1551</v>
@@ -3942,13 +3948,13 @@
         <v>1082583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3969,13 @@
         <v>111492</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -3978,13 +3984,13 @@
         <v>108659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -3993,13 +3999,13 @@
         <v>220151</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6A4D0-701D-4AF0-BFF3-8629A7E77B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A691B7-0C87-4E98-B442-DBF8328126CD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4092,7 +4098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4381,13 +4387,13 @@
         <v>1858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4396,13 +4402,13 @@
         <v>4646</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4411,13 +4417,13 @@
         <v>6504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4438,13 @@
         <v>47944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -4447,13 +4453,13 @@
         <v>38533</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -4462,13 +4468,13 @@
         <v>86477</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4489,13 @@
         <v>13432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4498,13 +4504,13 @@
         <v>12968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4513,13 +4519,13 @@
         <v>26399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4596,10 @@
         <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -4602,13 +4608,13 @@
         <v>18420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -4617,13 +4623,13 @@
         <v>44738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4644,13 @@
         <v>309511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>496</v>
@@ -4653,13 +4659,13 @@
         <v>320936</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>946</v>
@@ -4668,13 +4674,13 @@
         <v>630448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4695,13 @@
         <v>103515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4704,13 +4710,13 @@
         <v>98560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>279</v>
@@ -4719,13 +4725,13 @@
         <v>202075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>12483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4808,13 +4814,13 @@
         <v>6603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4823,10 +4829,10 @@
         <v>19086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>296</v>
@@ -4895,13 +4901,13 @@
         <v>23042</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -4910,13 +4916,13 @@
         <v>24105</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4925,13 +4931,13 @@
         <v>47147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5005,13 @@
         <v>40659</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5014,13 +5020,13 @@
         <v>29668</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -5029,13 +5035,13 @@
         <v>70328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5056,13 @@
         <v>494960</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c r="H21" s="7">
         <v>741</v>
@@ -5065,13 +5071,13 @@
         <v>483388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>1460</v>
@@ -5080,13 +5086,13 @@
         <v>978349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5107,13 @@
         <v>139989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -5116,13 +5122,13 @@
         <v>135633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>383</v>
@@ -5131,13 +5137,13 @@
         <v>275622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,7 +5199,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C559C01-8DC8-4AA6-BF7F-19DB7742ADBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FC89C2-6045-4C5C-B050-B4DAA6B398D8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5519,13 +5525,13 @@
         <v>965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5534,13 +5540,13 @@
         <v>548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -5549,13 +5555,13 @@
         <v>1513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,10 +5576,10 @@
         <v>6910</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>16</v>
@@ -5585,13 +5591,13 @@
         <v>4736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5600,13 +5606,13 @@
         <v>11646</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5627,13 @@
         <v>981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5636,13 +5642,13 @@
         <v>1290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5651,13 +5657,13 @@
         <v>2271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5731,13 @@
         <v>7429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5740,13 +5746,13 @@
         <v>7251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5755,13 +5761,13 @@
         <v>14679</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>66287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -5791,13 +5797,13 @@
         <v>52337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -5806,13 +5812,13 @@
         <v>118623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5833,13 @@
         <v>14267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5842,13 +5848,13 @@
         <v>6421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5857,13 +5863,13 @@
         <v>20688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>4165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5946,13 +5952,13 @@
         <v>3866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5961,13 +5967,13 @@
         <v>8031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5988,13 @@
         <v>19136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5997,13 +6003,13 @@
         <v>20831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -6012,13 +6018,13 @@
         <v>39967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6039,13 @@
         <v>6287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -6048,7 +6054,7 @@
         <v>2643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>410</v>
@@ -6066,10 +6072,10 @@
         <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6143,13 @@
         <v>12558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -6152,13 +6158,13 @@
         <v>11665</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -6167,13 +6173,13 @@
         <v>24223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6194,13 @@
         <v>92332</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -6203,13 +6209,13 @@
         <v>77904</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>264</v>
@@ -6218,13 +6224,13 @@
         <v>170236</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6245,13 @@
         <v>21535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -6254,13 +6260,13 @@
         <v>10354</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6269,13 +6275,13 @@
         <v>31889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6337,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
